--- a/xlsx/行政法学_intext.xlsx
+++ b/xlsx/行政法学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>行政法学</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>行政權</t>
+    <t>行政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Otto_Mayer</t>
@@ -77,55 +77,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E4%BA%8B%E9%99%A2</t>
   </si>
   <si>
-    <t>參事院</t>
+    <t>参事院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>普法戰爭</t>
+    <t>普法战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%99%95%E5%88%86</t>
   </si>
   <si>
-    <t>行政處分</t>
+    <t>行政处分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E6%80%A7</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>基本原則</t>
+    <t>基本原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行政行為</t>
+    <t>行政行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E7%9A%84</t>
@@ -179,31 +179,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%9F%B7%E8%A1%8C%E6%B3%95</t>
   </si>
   <si>
-    <t>行政執行法</t>
+    <t>行政执行法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%BD%B0%E6%B3%95</t>
   </si>
   <si>
-    <t>行政罰法</t>
+    <t>行政罚法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B4%E9%A1%98%E6%B3%95</t>
   </si>
   <si>
-    <t>訴願法</t>
+    <t>诉愿法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%B3%A0%E5%84%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>國家賠償法</t>
+    <t>国家赔偿法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -239,13 +239,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A1%E5%B9%B3%E6%B3%95</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -485,19 +485,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -557,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E4%BE%8B%E6%B3%95</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E5%BE%AA%E5%85%88%E4%BE%8B</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -647,9 +647,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
   </si>
   <si>
@@ -671,25 +668,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -929,25 +926,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -977,25 +974,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -1055,19 +1052,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -1091,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1121,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1139,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法理學</t>
+    <t>法理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>刑法學</t>
+    <t>刑法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E5%AD%A6</t>
@@ -1181,31 +1178,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E7%B8%BD%E5%89%87</t>
   </si>
   <si>
-    <t>民法總則</t>
+    <t>民法总则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>債法</t>
+    <t>债法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4</t>
   </si>
   <si>
-    <t>上訴</t>
+    <t>上诉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E5%AF%A9</t>
   </si>
   <si>
-    <t>再審</t>
+    <t>再审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B8%B8%E4%B8%8A%E8%A8%B4</t>
   </si>
   <si>
-    <t>非常上訴</t>
+    <t>非常上诉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%B3%95</t>
@@ -1217,13 +1214,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95</t>
@@ -4619,7 +4616,7 @@
         <v>209</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4645,10 +4642,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4674,10 +4671,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4703,10 +4700,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4732,10 +4729,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>8</v>
@@ -4761,10 +4758,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4790,10 +4787,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4819,10 +4816,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4848,10 +4845,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4877,10 +4874,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4906,10 +4903,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4935,10 +4932,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4964,10 +4961,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4993,10 +4990,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5022,10 +5019,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5051,10 +5048,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5080,10 +5077,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5109,10 +5106,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5138,10 +5135,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5167,10 +5164,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5196,10 +5193,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5225,10 +5222,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5254,10 +5251,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5283,10 +5280,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5312,10 +5309,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5341,10 +5338,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5370,10 +5367,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5399,10 +5396,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5428,10 +5425,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5457,10 +5454,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5486,10 +5483,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5515,10 +5512,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5544,10 +5541,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5573,10 +5570,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5602,10 +5599,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5631,10 +5628,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5660,10 +5657,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>8</v>
@@ -5689,10 +5686,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5718,10 +5715,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5747,10 +5744,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5776,10 +5773,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5805,10 +5802,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5834,10 +5831,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5863,10 +5860,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5892,10 +5889,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5921,10 +5918,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5950,10 +5947,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -5979,10 +5976,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6008,10 +6005,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6037,10 +6034,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6066,10 +6063,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6095,10 +6092,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6124,10 +6121,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6153,10 +6150,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6182,10 +6179,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6211,10 +6208,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>7</v>
@@ -6240,10 +6237,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>320</v>
+      </c>
+      <c r="F161" t="s">
         <v>321</v>
-      </c>
-      <c r="F161" t="s">
-        <v>322</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6269,10 +6266,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" t="s">
         <v>323</v>
-      </c>
-      <c r="F162" t="s">
-        <v>324</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6298,10 +6295,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>324</v>
+      </c>
+      <c r="F163" t="s">
         <v>325</v>
-      </c>
-      <c r="F163" t="s">
-        <v>326</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6327,10 +6324,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" t="s">
         <v>327</v>
-      </c>
-      <c r="F164" t="s">
-        <v>328</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6356,10 +6353,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>328</v>
+      </c>
+      <c r="F165" t="s">
         <v>329</v>
-      </c>
-      <c r="F165" t="s">
-        <v>330</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6385,10 +6382,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>330</v>
+      </c>
+      <c r="F166" t="s">
         <v>331</v>
-      </c>
-      <c r="F166" t="s">
-        <v>332</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6414,10 +6411,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>332</v>
+      </c>
+      <c r="F167" t="s">
         <v>333</v>
-      </c>
-      <c r="F167" t="s">
-        <v>334</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6443,10 +6440,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>334</v>
+      </c>
+      <c r="F168" t="s">
         <v>335</v>
-      </c>
-      <c r="F168" t="s">
-        <v>336</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6472,10 +6469,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>336</v>
+      </c>
+      <c r="F169" t="s">
         <v>337</v>
-      </c>
-      <c r="F169" t="s">
-        <v>338</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6501,10 +6498,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>338</v>
+      </c>
+      <c r="F170" t="s">
         <v>339</v>
-      </c>
-      <c r="F170" t="s">
-        <v>340</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6530,10 +6527,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>340</v>
+      </c>
+      <c r="F171" t="s">
         <v>341</v>
-      </c>
-      <c r="F171" t="s">
-        <v>342</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6559,10 +6556,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" t="s">
         <v>343</v>
-      </c>
-      <c r="F172" t="s">
-        <v>344</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6588,10 +6585,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>344</v>
+      </c>
+      <c r="F173" t="s">
         <v>345</v>
-      </c>
-      <c r="F173" t="s">
-        <v>346</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6617,10 +6614,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>346</v>
+      </c>
+      <c r="F174" t="s">
         <v>347</v>
-      </c>
-      <c r="F174" t="s">
-        <v>348</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6646,10 +6643,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>348</v>
+      </c>
+      <c r="F175" t="s">
         <v>349</v>
-      </c>
-      <c r="F175" t="s">
-        <v>350</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6675,10 +6672,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
         <v>351</v>
-      </c>
-      <c r="F176" t="s">
-        <v>352</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6704,10 +6701,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>352</v>
+      </c>
+      <c r="F177" t="s">
         <v>353</v>
-      </c>
-      <c r="F177" t="s">
-        <v>354</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6733,10 +6730,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>354</v>
+      </c>
+      <c r="F178" t="s">
         <v>355</v>
-      </c>
-      <c r="F178" t="s">
-        <v>356</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6762,10 +6759,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
         <v>357</v>
-      </c>
-      <c r="F179" t="s">
-        <v>358</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6791,10 +6788,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>358</v>
+      </c>
+      <c r="F180" t="s">
         <v>359</v>
-      </c>
-      <c r="F180" t="s">
-        <v>360</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6820,10 +6817,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>360</v>
+      </c>
+      <c r="F181" t="s">
         <v>361</v>
-      </c>
-      <c r="F181" t="s">
-        <v>362</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6849,10 +6846,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>362</v>
+      </c>
+      <c r="F182" t="s">
         <v>363</v>
-      </c>
-      <c r="F182" t="s">
-        <v>364</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6878,10 +6875,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>252</v>
+      </c>
+      <c r="F183" t="s">
         <v>253</v>
-      </c>
-      <c r="F183" t="s">
-        <v>254</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6907,10 +6904,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6936,10 +6933,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6965,10 +6962,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6994,10 +6991,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -7023,10 +7020,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7052,10 +7049,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7081,10 +7078,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>252</v>
+      </c>
+      <c r="F190" t="s">
         <v>253</v>
-      </c>
-      <c r="F190" t="s">
-        <v>254</v>
       </c>
       <c r="G190" t="n">
         <v>19</v>
@@ -7110,10 +7107,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7139,10 +7136,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7168,10 +7165,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>262</v>
+      </c>
+      <c r="F193" t="s">
         <v>263</v>
-      </c>
-      <c r="F193" t="s">
-        <v>264</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7197,10 +7194,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>380</v>
+      </c>
+      <c r="F194" t="s">
         <v>381</v>
-      </c>
-      <c r="F194" t="s">
-        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7226,10 +7223,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>382</v>
+      </c>
+      <c r="F195" t="s">
         <v>383</v>
-      </c>
-      <c r="F195" t="s">
-        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7255,10 +7252,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>384</v>
+      </c>
+      <c r="F196" t="s">
         <v>385</v>
-      </c>
-      <c r="F196" t="s">
-        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7284,10 +7281,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>386</v>
+      </c>
+      <c r="F197" t="s">
         <v>387</v>
-      </c>
-      <c r="F197" t="s">
-        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>6</v>
@@ -7313,10 +7310,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
         <v>389</v>
-      </c>
-      <c r="F198" t="s">
-        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7400,10 +7397,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201" t="s">
         <v>391</v>
-      </c>
-      <c r="F201" t="s">
-        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -7429,10 +7426,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>392</v>
+      </c>
+      <c r="F202" t="s">
         <v>393</v>
-      </c>
-      <c r="F202" t="s">
-        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7458,10 +7455,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>394</v>
+      </c>
+      <c r="F203" t="s">
         <v>395</v>
-      </c>
-      <c r="F203" t="s">
-        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7516,10 +7513,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>396</v>
+      </c>
+      <c r="F205" t="s">
         <v>397</v>
-      </c>
-      <c r="F205" t="s">
-        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7545,10 +7542,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>398</v>
+      </c>
+      <c r="F206" t="s">
         <v>399</v>
-      </c>
-      <c r="F206" t="s">
-        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7574,10 +7571,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
         <v>401</v>
-      </c>
-      <c r="F207" t="s">
-        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7603,10 +7600,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>402</v>
+      </c>
+      <c r="F208" t="s">
         <v>403</v>
-      </c>
-      <c r="F208" t="s">
-        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7632,10 +7629,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
